--- a/Plan_de_test.xlsx
+++ b/Plan_de_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\001_oc\014_P5\000_git\ericgautier_5_27052021\Orinoco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\001_oc\014_P5\000_git\ericgautier_5_27052021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -160,24 +160,6 @@
   </si>
   <si>
     <t>getItemsFromLocalStorage</t>
-  </si>
-  <si>
-    <t>W3C</t>
-  </si>
-  <si>
-    <t>Readme</t>
-  </si>
-  <si>
-    <t>capture ecran</t>
-  </si>
-  <si>
-    <t>backend sortir du front</t>
-  </si>
-  <si>
-    <t>choix des meubles en bois</t>
-  </si>
-  <si>
-    <t>mis l'accent sur les test fonctionnel car les tests d'interface graphique sont par definition visuel et plus rapide à vérifier</t>
   </si>
   <si>
     <t>La fonction doit retourner 
@@ -385,6 +367,92 @@
   </si>
   <si>
     <t>Vérifier que les clés sont supprimés du localStorage</t>
+  </si>
+  <si>
+    <t>Script.js</t>
+  </si>
+  <si>
+    <t>isValidName
+isValidAddress
+isValidCity
+isValidZip
+isValidEmail</t>
+  </si>
+  <si>
+    <t>Dans console log tester les caratères et vérifier le statut true / false
+ex: 
+isValidName("eric") renvoie true
+isValidName("eric@") renvoie false
+…</t>
+  </si>
+  <si>
+    <t>Données corrompues ou incomplètes</t>
+  </si>
+  <si>
+    <t>4 à 18</t>
+  </si>
+  <si>
+    <t>22 à 32</t>
+  </si>
+  <si>
+    <t>displaySpecialOffer</t>
+  </si>
+  <si>
+    <t>Vérifier que la bannière s'affiche si visible = true</t>
+  </si>
+  <si>
+    <t>mauvais paramétrage</t>
+  </si>
+  <si>
+    <t>displayTitle</t>
+  </si>
+  <si>
+    <t>updateTotalQty</t>
+  </si>
+  <si>
+    <t>displayTotalQty</t>
+  </si>
+  <si>
+    <t>36 à 42</t>
+  </si>
+  <si>
+    <t>la fonction affiche un titre sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>la fonction affiche une bannière sur les pages accueil et produit</t>
+  </si>
+  <si>
+    <t>Vérifier que le titre s'affiche si visible = true</t>
+  </si>
+  <si>
+    <t>46 à 53</t>
+  </si>
+  <si>
+    <t>updateErrorMessage</t>
+  </si>
+  <si>
+    <t>la fonction affiche un message d'erreur ou met à jour le titre h1</t>
+  </si>
+  <si>
+    <t>Vérifier que le message d'erreur s'affiche si visible = true</t>
+  </si>
+  <si>
+    <t>57 à 66</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner "quantity updated in LS"</t>
+  </si>
+  <si>
+    <t>70 à 82</t>
+  </si>
+  <si>
+    <t>Vérifier que la quantité du panier dans la navbar change si on modifie la quantité d'un article</t>
+  </si>
+  <si>
+    <t>Vérifier dans le localStrorage que la valeur de la clé "totalItemsInCart" change si on modifie la quantité d'un article</t>
+  </si>
+  <si>
+    <t>Les fonctions REGEX retournent true ou false</t>
   </si>
 </sst>
 </file>
@@ -717,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,7 +797,7 @@
     <col min="2" max="2" width="19.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.6328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -771,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -805,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -831,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -865,7 +933,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -905,7 +973,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
@@ -925,7 +993,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
@@ -945,10 +1013,10 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
@@ -959,13 +1027,13 @@
         <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -979,19 +1047,19 @@
         <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -999,19 +1067,19 @@
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1019,19 +1087,19 @@
         <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1039,19 +1107,19 @@
         <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
@@ -1059,19 +1127,19 @@
         <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -1079,16 +1147,16 @@
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>41</v>
@@ -1096,19 +1164,19 @@
     </row>
     <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>41</v>
@@ -1116,59 +1184,59 @@
     </row>
     <row r="20" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>41</v>
@@ -1176,52 +1244,142 @@
     </row>
     <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="24" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Plan_de_test.xlsx
+++ b/Plan_de_test.xlsx
@@ -787,9 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -882,7 +880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1384,6 +1382,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>